--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_7_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_7_6.xlsx
@@ -518,56 +518,56 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_2</t>
+          <t>model_7_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9331689725728179</v>
+        <v>0.9576280551284888</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7873247125042249</v>
+        <v>0.7831034916617408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9913037481434448</v>
+        <v>0.8990490996850925</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.641751304411703</v>
+        <v>0.9056983900641384</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8682131151788908</v>
+        <v>0.9022536679755702</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4468993881341518</v>
+        <v>0.2833413904606619</v>
       </c>
       <c r="H2" t="n">
-        <v>1.422160626763902</v>
+        <v>1.450387949974528</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03526410073282685</v>
+        <v>1.10137324482653</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8293815835946867</v>
+        <v>0.2295531795964802</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4323227997006262</v>
+        <v>0.6654632070870004</v>
       </c>
       <c r="L2" t="n">
-        <v>2.374925731952784</v>
+        <v>1.144446653676141</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6685053388972685</v>
+        <v>0.5322982157218469</v>
       </c>
       <c r="N2" t="n">
-        <v>1.039120601420789</v>
+        <v>1.024803089680885</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6969649951709506</v>
+        <v>0.5549592527743364</v>
       </c>
       <c r="P2" t="n">
-        <v>131.6108435843547</v>
+        <v>132.5222055633004</v>
       </c>
       <c r="Q2" t="n">
-        <v>210.8377722007878</v>
+        <v>211.7491341797335</v>
       </c>
     </row>
     <row r="3">
@@ -577,162 +577,162 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9324233678774868</v>
+        <v>0.9576724531611762</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7873201660027098</v>
+        <v>0.7830878489837632</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9908275284261868</v>
+        <v>0.8985025732233693</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.611235299436763</v>
+        <v>0.9053224873799145</v>
       </c>
       <c r="F3" t="n">
-        <v>0.86937900691379</v>
+        <v>0.9017485608742244</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4518852501650251</v>
+        <v>0.2830445006116469</v>
       </c>
       <c r="H3" t="n">
-        <v>1.422191029240468</v>
+        <v>1.450492552634193</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03719521546562835</v>
+        <v>1.107335842689985</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8198010403812388</v>
+        <v>0.2304682186551045</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4284981279234335</v>
+        <v>0.6689020081613974</v>
       </c>
       <c r="L3" t="n">
-        <v>2.371643583466242</v>
+        <v>1.141740750268931</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6722241070989832</v>
+        <v>0.5320192671432558</v>
       </c>
       <c r="N3" t="n">
-        <v>1.039557052949764</v>
+        <v>1.02477710058858</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7008420790339237</v>
+        <v>0.5546684287772515</v>
       </c>
       <c r="P3" t="n">
-        <v>131.588654005394</v>
+        <v>132.5243022954464</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.815582621827</v>
+        <v>211.7512309118794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_3</t>
+          <t>model_7_6_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9338822323958457</v>
+        <v>0.9577075545062775</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7872962613769316</v>
+        <v>0.7830643747398749</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9917826987026853</v>
+        <v>0.8979387259960024</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.67415927673557</v>
+        <v>0.9049366640286525</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8669583636604072</v>
+        <v>0.9012277979828952</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4421298164133061</v>
+        <v>0.2828097777553274</v>
       </c>
       <c r="H4" t="n">
-        <v>1.422350879583117</v>
+        <v>1.450649525011162</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03332191218473786</v>
+        <v>1.113487409921722</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8395561126512919</v>
+        <v>0.2314074070433516</v>
       </c>
       <c r="K4" t="n">
-        <v>0.436438973249578</v>
+        <v>0.6724473948436227</v>
       </c>
       <c r="L4" t="n">
-        <v>2.379071716398677</v>
+        <v>1.139043855173843</v>
       </c>
       <c r="M4" t="n">
-        <v>0.664928429542087</v>
+        <v>0.5317986251912724</v>
       </c>
       <c r="N4" t="n">
-        <v>1.038703083475603</v>
+        <v>1.02475655345974</v>
       </c>
       <c r="O4" t="n">
-        <v>0.693235809379296</v>
+        <v>0.5544383936405803</v>
       </c>
       <c r="P4" t="n">
-        <v>131.6323034754679</v>
+        <v>132.5259615415015</v>
       </c>
       <c r="Q4" t="n">
-        <v>210.859232091901</v>
+        <v>211.7528901579345</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_0</t>
+          <t>model_7_6_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9316447473388308</v>
+        <v>0.9577334440283348</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7872851930706234</v>
+        <v>0.7830331268902296</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9903528448424075</v>
+        <v>0.8973576669701143</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.58260809060433</v>
+        <v>0.9045394339046957</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8704554790966613</v>
+        <v>0.9006912055124233</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4570918892922357</v>
+        <v>0.2826366544021197</v>
       </c>
       <c r="H5" t="n">
-        <v>1.422424893398365</v>
+        <v>1.450858479525623</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03912010103595515</v>
+        <v>1.119826757691597</v>
       </c>
       <c r="J5" t="n">
-        <v>0.810813487406177</v>
+        <v>0.2323743623058098</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4249667942210661</v>
+        <v>0.6761005503012593</v>
       </c>
       <c r="L5" t="n">
-        <v>2.36924672039943</v>
+        <v>1.136361959439458</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6760857114983541</v>
+        <v>0.5316358287419309</v>
       </c>
       <c r="N5" t="n">
-        <v>1.04001283082605</v>
+        <v>1.02474139861756</v>
       </c>
       <c r="O5" t="n">
-        <v>0.704868079927199</v>
+        <v>0.5542686666093554</v>
       </c>
       <c r="P5" t="n">
-        <v>131.5657416752772</v>
+        <v>132.5271862259191</v>
       </c>
       <c r="Q5" t="n">
-        <v>210.7926702917102</v>
+        <v>211.7541148423522</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9345639081228496</v>
+        <v>0.9577503083236169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7872326870538566</v>
+        <v>0.782994306176962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9922647266638444</v>
+        <v>0.8967597444818958</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.708407226085558</v>
+        <v>0.9041316709817016</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8656174573886337</v>
+        <v>0.9001392110666196</v>
       </c>
       <c r="G6" t="n">
-        <v>0.437571447688003</v>
+        <v>0.2825238827819159</v>
       </c>
       <c r="H6" t="n">
-        <v>1.422776001374253</v>
+        <v>1.451118073813997</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03136724448896023</v>
+        <v>1.126350085655486</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8503083051151806</v>
+        <v>0.2333669569768714</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4408377748020705</v>
+        <v>0.6798585633805316</v>
       </c>
       <c r="L6" t="n">
-        <v>2.384051734182146</v>
+        <v>1.133691413248769</v>
       </c>
       <c r="M6" t="n">
-        <v>0.661491834936761</v>
+        <v>0.5315297571932506</v>
       </c>
       <c r="N6" t="n">
-        <v>1.038304053781747</v>
+        <v>1.024731526834956</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6896529118268897</v>
+        <v>0.5541580793752493</v>
       </c>
       <c r="P6" t="n">
-        <v>131.6530305550336</v>
+        <v>132.5279843822962</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.8799591714666</v>
+        <v>211.7549129987292</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.935215011897269</v>
+        <v>0.9577581975785384</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7871322620357939</v>
+        <v>0.782947887925785</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9927495195272272</v>
+        <v>0.8961448027770317</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.744414391660402</v>
+        <v>0.9037128586396151</v>
       </c>
       <c r="F7" t="n">
-        <v>0.864194090627621</v>
+        <v>0.8995716175967767</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4332175137504036</v>
+        <v>0.2824711272979288</v>
       </c>
       <c r="H7" t="n">
-        <v>1.423447543932453</v>
+        <v>1.451428472873354</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0294013648604854</v>
+        <v>1.133059093091305</v>
       </c>
       <c r="J7" t="n">
-        <v>0.861612806017801</v>
+        <v>0.2343864486360867</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4455070854391432</v>
+        <v>0.6837227756014967</v>
       </c>
       <c r="L7" t="n">
-        <v>2.38982839607852</v>
+        <v>1.131035035337662</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6581926114371108</v>
+        <v>0.5314801287893357</v>
       </c>
       <c r="N7" t="n">
-        <v>1.037922919865013</v>
+        <v>1.024726908734514</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6862132335525253</v>
+        <v>0.5541063381874348</v>
       </c>
       <c r="P7" t="n">
-        <v>131.6730306717716</v>
+        <v>132.5283578757479</v>
       </c>
       <c r="Q7" t="n">
-        <v>210.8999592882047</v>
+        <v>211.755286492181</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.935836703185837</v>
+        <v>0.9577571877167417</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7869938757098291</v>
+        <v>0.7828940212795742</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9932359836032224</v>
+        <v>0.895512962853125</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.782071776424419</v>
+        <v>0.9032829578746534</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8626927986551025</v>
+        <v>0.8989885027924646</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4290602612411235</v>
+        <v>0.2824778802484139</v>
       </c>
       <c r="H8" t="n">
-        <v>1.42437293393139</v>
+        <v>1.451788679384599</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02742870831123143</v>
+        <v>1.139952459916497</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8734353955845997</v>
+        <v>0.2354329322282019</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4504320273224596</v>
+        <v>0.6876926580486511</v>
       </c>
       <c r="L8" t="n">
-        <v>2.396361293312261</v>
+        <v>1.128398672894777</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6550269164249081</v>
+        <v>0.5314864817174694</v>
       </c>
       <c r="N8" t="n">
-        <v>1.037559003013169</v>
+        <v>1.024727499873127</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6829127683497609</v>
+        <v>0.5541129615728715</v>
       </c>
       <c r="P8" t="n">
-        <v>131.6923158016509</v>
+        <v>132.5283100629337</v>
       </c>
       <c r="Q8" t="n">
-        <v>210.9192444180839</v>
+        <v>211.7552386793668</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9364300729940428</v>
+        <v>0.9577474932344057</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7868167073632438</v>
+        <v>0.7828327895323379</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9937221447981431</v>
+        <v>0.8948647308264464</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.821261302915847</v>
+        <v>0.9028416055667529</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8611179966581406</v>
+        <v>0.8983901907674394</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4250923946014346</v>
+        <v>0.2825427072964336</v>
       </c>
       <c r="H9" t="n">
-        <v>1.425557659480791</v>
+        <v>1.452198136360314</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0254572799725786</v>
+        <v>1.147024664407952</v>
       </c>
       <c r="J9" t="n">
-        <v>0.885739003228327</v>
+        <v>0.236507291676251</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4555981165674162</v>
+        <v>0.6917660041350534</v>
       </c>
       <c r="L9" t="n">
-        <v>2.403600061788022</v>
+        <v>1.126219396418568</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6519911000937318</v>
+        <v>0.5315474647634335</v>
       </c>
       <c r="N9" t="n">
-        <v>1.037211664588853</v>
+        <v>1.024733174692055</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6797477110323603</v>
+        <v>0.5541765407933547</v>
       </c>
       <c r="P9" t="n">
-        <v>131.7108974692465</v>
+        <v>132.5278511271021</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.9378260856796</v>
+        <v>211.7547797435352</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9369962795432583</v>
+        <v>0.9577291311130975</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7866005892538936</v>
+        <v>0.7827643230967947</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9942052690214292</v>
+        <v>0.8941998617020568</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.861839291692429</v>
+        <v>0.902389308296546</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8594749085063653</v>
+        <v>0.8977766005407527</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4213061687996899</v>
+        <v>0.2826654948861712</v>
       </c>
       <c r="H10" t="n">
-        <v>1.427002842273148</v>
+        <v>1.45265597173005</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02349816683309546</v>
+        <v>1.15427837945784</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8984785205835021</v>
+        <v>0.2376082938390922</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4609882164312581</v>
+        <v>0.695943365184122</v>
       </c>
       <c r="L10" t="n">
-        <v>2.411496754374167</v>
+        <v>1.12405019540559</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6490810186715446</v>
+        <v>0.5316629523355668</v>
       </c>
       <c r="N10" t="n">
-        <v>1.036880226608824</v>
+        <v>1.02474392325087</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6767137414193315</v>
+        <v>0.5542969449105259</v>
       </c>
       <c r="P10" t="n">
-        <v>131.7287909356149</v>
+        <v>132.5269821546336</v>
       </c>
       <c r="Q10" t="n">
-        <v>210.955719552048</v>
+        <v>211.7539107710666</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9375364216826451</v>
+        <v>0.9577021580257146</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7863457024891314</v>
+        <v>0.782688659461716</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9946823579931616</v>
+        <v>0.8935186513316099</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.903678429825623</v>
+        <v>0.9019248039422276</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8577676721841563</v>
+        <v>0.8971477390184869</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4176942358264839</v>
+        <v>0.2828458640457004</v>
       </c>
       <c r="H11" t="n">
-        <v>1.428707271242759</v>
+        <v>1.453161934806221</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02156352719348954</v>
+        <v>1.161710377327776</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9116139775749287</v>
+        <v>0.2387390110298453</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4665887523842091</v>
+        <v>0.7002246941788108</v>
       </c>
       <c r="L11" t="n">
-        <v>2.41998567442009</v>
+        <v>1.121910022747339</v>
       </c>
       <c r="M11" t="n">
-        <v>0.646292685883481</v>
+        <v>0.5318325526382345</v>
       </c>
       <c r="N11" t="n">
-        <v>1.036564045844305</v>
+        <v>1.024759712375191</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6738067035318356</v>
+        <v>0.5544737654491991</v>
       </c>
       <c r="P11" t="n">
-        <v>131.7460112147344</v>
+        <v>132.5257063594596</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.9729398311674</v>
+        <v>211.7526349758926</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9380513870136465</v>
+        <v>0.9576668000587601</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7860526422604822</v>
+        <v>0.7826059338775797</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9951497029662237</v>
+        <v>0.892821177185479</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.946638823399224</v>
+        <v>0.9014492334921687</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8560008037069988</v>
+        <v>0.8965038691701159</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4142506602868797</v>
+        <v>0.283082302933533</v>
       </c>
       <c r="H12" t="n">
-        <v>1.430666966341154</v>
+        <v>1.453715121168256</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01966840036426572</v>
+        <v>1.169319812816816</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9251014543084203</v>
+        <v>0.2398966658037926</v>
       </c>
       <c r="K12" t="n">
-        <v>0.472384909777142</v>
+        <v>0.704608200806317</v>
       </c>
       <c r="L12" t="n">
-        <v>2.429010175050506</v>
+        <v>1.119792103284081</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6436230731467601</v>
+        <v>0.5320547931684603</v>
       </c>
       <c r="N12" t="n">
-        <v>1.036262602723719</v>
+        <v>1.024780409721701</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6710234398540523</v>
+        <v>0.5547054672188979</v>
       </c>
       <c r="P12" t="n">
-        <v>131.7625680574868</v>
+        <v>132.5240352010661</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.9894966739199</v>
+        <v>211.7509638174991</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9385421667577922</v>
+        <v>0.9576229686268629</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7857222438006035</v>
+        <v>0.782516210101192</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9956035426758755</v>
+        <v>0.8921074774676332</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.990599564437904</v>
+        <v>0.9009610275762989</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8541777091498995</v>
+        <v>0.8958447282646592</v>
       </c>
       <c r="G13" t="n">
-        <v>0.410968813877945</v>
+        <v>0.283375403920455</v>
       </c>
       <c r="H13" t="n">
-        <v>1.432876342363708</v>
+        <v>1.454315104474101</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01782803861972279</v>
+        <v>1.177106269120065</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9389029915529629</v>
+        <v>0.2410850783914667</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4783655150863428</v>
+        <v>0.7090956737557658</v>
       </c>
       <c r="L13" t="n">
-        <v>2.438508270151967</v>
+        <v>1.117699771598707</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6410684939052496</v>
+        <v>0.5323301643909116</v>
       </c>
       <c r="N13" t="n">
-        <v>1.035975317019829</v>
+        <v>1.024806067145251</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6683601068855225</v>
+        <v>0.5549925615643861</v>
       </c>
       <c r="P13" t="n">
-        <v>131.7784758920146</v>
+        <v>132.5219654895269</v>
       </c>
       <c r="Q13" t="n">
-        <v>211.0054045084476</v>
+        <v>211.74889410596</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9390093767939346</v>
+        <v>0.9575709673745227</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7853554987269646</v>
+        <v>0.7824196002361244</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9960401244060469</v>
+        <v>0.8913779932530365</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.03546123310247</v>
+        <v>0.9004610796234709</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8523008148409428</v>
+        <v>0.8951708464067265</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4078445782149561</v>
+        <v>0.2837231365342973</v>
       </c>
       <c r="H14" t="n">
-        <v>1.435328768359837</v>
+        <v>1.454961135086655</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01605765956851422</v>
+        <v>1.185064934114373</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9529873763084779</v>
+        <v>0.2423020739685569</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4845226088175725</v>
+        <v>0.7136835040414649</v>
       </c>
       <c r="L14" t="n">
-        <v>2.448449620209009</v>
+        <v>1.115637015815301</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6386271041969297</v>
+        <v>0.532656677921433</v>
       </c>
       <c r="N14" t="n">
-        <v>1.035701828218185</v>
+        <v>1.024836506902718</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6658147821629462</v>
+        <v>0.555332975451878</v>
       </c>
       <c r="P14" t="n">
-        <v>131.7937382258002</v>
+        <v>132.5195127753504</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.0206668422332</v>
+        <v>211.7464413917834</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9394537111913054</v>
+        <v>0.957510787416153</v>
       </c>
       <c r="C15" t="n">
-        <v>0.784953628419171</v>
+        <v>0.7823161604820703</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9964554666514688</v>
+        <v>0.890632784097834</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.081118196459423</v>
+        <v>0.8999487049062204</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8503727839542412</v>
+        <v>0.8944821337226863</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4048733120537661</v>
+        <v>0.2841255601930192</v>
       </c>
       <c r="H15" t="n">
-        <v>1.438016076958496</v>
+        <v>1.455652837198312</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01437340858053085</v>
+        <v>1.193195158042832</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9673214449650832</v>
+        <v>0.243549319329158</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4908474545105228</v>
+        <v>0.7183723035287783</v>
       </c>
       <c r="L15" t="n">
-        <v>2.458734058385391</v>
+        <v>1.113604163116799</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6362965598317865</v>
+        <v>0.5330342955129802</v>
       </c>
       <c r="N15" t="n">
-        <v>1.035441730034358</v>
+        <v>1.024871734195423</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6633850216992868</v>
+        <v>0.5557266690060736</v>
       </c>
       <c r="P15" t="n">
-        <v>131.8083621411091</v>
+        <v>132.5166780503371</v>
       </c>
       <c r="Q15" t="n">
-        <v>211.0352907575422</v>
+        <v>211.7436066667701</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.93987574552999</v>
+        <v>0.9574425029448731</v>
       </c>
       <c r="C16" t="n">
-        <v>0.784517923858756</v>
+        <v>0.7822059896980923</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9968459426435237</v>
+        <v>0.8898717969126314</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.127484706839355</v>
+        <v>0.89942395696413</v>
       </c>
       <c r="F16" t="n">
-        <v>0.848395420328564</v>
+        <v>0.8937785958975093</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4020511664876926</v>
+        <v>0.2845821787668888</v>
       </c>
       <c r="H16" t="n">
-        <v>1.440929635360226</v>
+        <v>1.456389549738062</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01278999253592854</v>
+        <v>1.201497520110169</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9818782769198727</v>
+        <v>0.2448266841448326</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4973341347279007</v>
+        <v>0.723162033514066</v>
       </c>
       <c r="L16" t="n">
-        <v>2.469299902332006</v>
+        <v>1.111603204173058</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6340750479932897</v>
+        <v>0.5334624436329972</v>
       </c>
       <c r="N16" t="n">
-        <v>1.03519468554342</v>
+        <v>1.024911705593245</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6610689355026618</v>
+        <v>0.5561730442779486</v>
       </c>
       <c r="P16" t="n">
-        <v>131.8223518372847</v>
+        <v>132.5134664276303</v>
       </c>
       <c r="Q16" t="n">
-        <v>211.0492804537178</v>
+        <v>211.7403950440633</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9402760178605113</v>
+        <v>0.9573662212736073</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7840496603652203</v>
+        <v>0.7820891917454542</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9972081681450322</v>
+        <v>0.889095279184967</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.17448496015737</v>
+        <v>0.8988865335035264</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8463702532174957</v>
+        <v>0.893060330184076</v>
       </c>
       <c r="G17" t="n">
-        <v>0.399374543570412</v>
+        <v>0.2850922746538887</v>
       </c>
       <c r="H17" t="n">
-        <v>1.444060915497654</v>
+        <v>1.457170578185158</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01132113482758519</v>
+        <v>1.209969320229982</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9966340733724566</v>
+        <v>0.2461349042723066</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5039776328006198</v>
+        <v>0.7280520318935693</v>
       </c>
       <c r="L17" t="n">
-        <v>2.480087636209331</v>
+        <v>1.109637061721572</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6319608718666149</v>
+        <v>0.5339403287389788</v>
       </c>
       <c r="N17" t="n">
-        <v>1.034960379788969</v>
+        <v>1.024956358278864</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6588647545213265</v>
+        <v>0.5566712739422501</v>
       </c>
       <c r="P17" t="n">
-        <v>131.8357111934214</v>
+        <v>132.509884760801</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.0626398098544</v>
+        <v>211.7368133772341</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9406548814025486</v>
+        <v>0.9572821442750432</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7835500364017185</v>
+        <v>0.7819658303556266</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9975389781119648</v>
+        <v>0.8883036035448287</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.222068594351024</v>
+        <v>0.8983365705139386</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8442978006799985</v>
+        <v>0.8923276568296696</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3968410813203026</v>
+        <v>0.285654497930425</v>
       </c>
       <c r="H18" t="n">
-        <v>1.447401903242147</v>
+        <v>1.457995496366962</v>
       </c>
       <c r="I18" t="n">
-        <v>0.009979670000006456</v>
+        <v>1.21860649301308</v>
       </c>
       <c r="J18" t="n">
-        <v>1.01157302308162</v>
+        <v>0.2474736486798109</v>
       </c>
       <c r="K18" t="n">
-        <v>0.510776249252277</v>
+        <v>0.7330401184035436</v>
       </c>
       <c r="L18" t="n">
-        <v>2.49105372282734</v>
+        <v>1.107706567678961</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6299532374075894</v>
+        <v>0.5344665545480138</v>
       </c>
       <c r="N18" t="n">
-        <v>1.034738606008264</v>
+        <v>1.025005574082902</v>
       </c>
       <c r="O18" t="n">
-        <v>0.656771650907004</v>
+        <v>0.5572199022734134</v>
       </c>
       <c r="P18" t="n">
-        <v>131.8484387547545</v>
+        <v>132.5059444952725</v>
       </c>
       <c r="Q18" t="n">
-        <v>211.0753673711876</v>
+        <v>211.7328731117055</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9410126195053872</v>
+        <v>0.9571902085095367</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7830203908063849</v>
+        <v>0.7818359967225472</v>
       </c>
       <c r="D19" t="n">
-        <v>0.997835538437012</v>
+        <v>0.8874966258246038</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.270184258140715</v>
+        <v>0.8977730032770194</v>
       </c>
       <c r="F19" t="n">
-        <v>0.842178653074764</v>
+        <v>0.8915803089344594</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3944488849793883</v>
+        <v>0.2862692728176921</v>
       </c>
       <c r="H19" t="n">
-        <v>1.450943645776938</v>
+        <v>1.458863694469193</v>
       </c>
       <c r="I19" t="n">
-        <v>0.008777090618874352</v>
+        <v>1.227410611326581</v>
       </c>
       <c r="J19" t="n">
-        <v>1.026679004240013</v>
+        <v>0.248845509152174</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5177280474294436</v>
+        <v>0.7381281101149058</v>
       </c>
       <c r="L19" t="n">
-        <v>2.5021500765552</v>
+        <v>1.105815243280094</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6280516578908046</v>
+        <v>0.5350413748652454</v>
       </c>
       <c r="N19" t="n">
-        <v>1.03452919833831</v>
+        <v>1.025059390140759</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6547891172133775</v>
+        <v>0.5578191938815917</v>
       </c>
       <c r="P19" t="n">
-        <v>131.8605314324361</v>
+        <v>132.5016447955188</v>
       </c>
       <c r="Q19" t="n">
-        <v>211.0874600488691</v>
+        <v>211.7285734119518</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9413496738163936</v>
+        <v>0.9570905705910414</v>
       </c>
       <c r="C20" t="n">
-        <v>0.782461970714539</v>
+        <v>0.7816997572130182</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9980953870475268</v>
+        <v>0.8866746074638975</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.31878410129385</v>
+        <v>0.8971964079018928</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8400136607854025</v>
+        <v>0.8908185927902605</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3921950012496965</v>
+        <v>0.286935552037461</v>
       </c>
       <c r="H20" t="n">
-        <v>1.454677803502399</v>
+        <v>1.459774728696739</v>
       </c>
       <c r="I20" t="n">
-        <v>0.007723380615113673</v>
+        <v>1.23637882286718</v>
       </c>
       <c r="J20" t="n">
-        <v>1.041936994198979</v>
+        <v>0.2502490832989033</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5248302376749868</v>
+        <v>0.7433139217736162</v>
       </c>
       <c r="L20" t="n">
-        <v>2.514791780801879</v>
+        <v>1.103966163369302</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6262547414987741</v>
+        <v>0.5356636556996013</v>
       </c>
       <c r="N20" t="n">
-        <v>1.034331898253818</v>
+        <v>1.025117714775976</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6529157023704086</v>
+        <v>0.558467966499365</v>
       </c>
       <c r="P20" t="n">
-        <v>131.8719922214248</v>
+        <v>132.4969952916001</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.0989208378578</v>
+        <v>211.7239239080332</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9416662989685433</v>
+        <v>0.956983315984953</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7818758999601143</v>
+        <v>0.7815571935235632</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9983163551645147</v>
+        <v>0.885837784486826</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.367828804454973</v>
+        <v>0.8966063297367204</v>
       </c>
       <c r="F21" t="n">
-        <v>0.837803430996185</v>
+        <v>0.8900425761771513</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3900777273993468</v>
+        <v>0.2876527640822359</v>
       </c>
       <c r="H21" t="n">
-        <v>1.458596861335844</v>
+        <v>1.46072805274457</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00682733458692365</v>
+        <v>1.245508552614291</v>
       </c>
       <c r="J21" t="n">
-        <v>1.057334648590887</v>
+        <v>0.2516854778537568</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5320808281396852</v>
+        <v>0.7485970919286189</v>
       </c>
       <c r="L21" t="n">
-        <v>2.527523869025197</v>
+        <v>1.102158316767382</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6245620284642245</v>
+        <v>0.5363326990611665</v>
       </c>
       <c r="N21" t="n">
-        <v>1.034146556701341</v>
+        <v>1.025180497960027</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6511509270375792</v>
+        <v>0.5591654924219428</v>
       </c>
       <c r="P21" t="n">
-        <v>131.8828185173846</v>
+        <v>132.4920024130668</v>
       </c>
       <c r="Q21" t="n">
-        <v>211.1097471338176</v>
+        <v>211.7189310294999</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9419628817457195</v>
+        <v>0.9568684876423257</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7812633385432408</v>
+        <v>0.7814083807031297</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9984966820045708</v>
+        <v>0.884986150176992</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.417288679212426</v>
+        <v>0.8960022303751919</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8355481006200882</v>
+        <v>0.8892522015480833</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3880944770027308</v>
+        <v>0.2884206217381207</v>
       </c>
       <c r="H22" t="n">
-        <v>1.462693062351063</v>
+        <v>1.461723164760029</v>
       </c>
       <c r="I22" t="n">
-        <v>0.006096092672882442</v>
+        <v>1.254799873843737</v>
       </c>
       <c r="J22" t="n">
-        <v>1.072862646696624</v>
+        <v>0.253156003429358</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5394793696847531</v>
+        <v>0.7539780123638574</v>
       </c>
       <c r="L22" t="n">
-        <v>2.540272747778372</v>
+        <v>1.100395178694959</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6229722923234474</v>
+        <v>0.5370480627822064</v>
       </c>
       <c r="N22" t="n">
-        <v>1.033972947270798</v>
+        <v>1.025247714550834</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6494935125380816</v>
+        <v>0.5599113106575944</v>
       </c>
       <c r="P22" t="n">
-        <v>131.8930129431397</v>
+        <v>132.4866707443626</v>
       </c>
       <c r="Q22" t="n">
-        <v>211.1199415595727</v>
+        <v>211.7135993607957</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.942239695096857</v>
+        <v>0.9567463151274558</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7806253519384962</v>
+        <v>0.7812533853939905</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9986347202148412</v>
+        <v>0.8841201611243908</v>
       </c>
       <c r="E23" t="n">
-        <v>-2.467125358978593</v>
+        <v>0.8953845934430165</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8332486521856176</v>
+        <v>0.888447916830875</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3862434248490658</v>
+        <v>0.2892375899076086</v>
       </c>
       <c r="H23" t="n">
-        <v>1.466959281714648</v>
+        <v>1.462759619105931</v>
       </c>
       <c r="I23" t="n">
-        <v>0.005536335040255127</v>
+        <v>1.26424780516354</v>
       </c>
       <c r="J23" t="n">
-        <v>1.088508943271376</v>
+        <v>0.2546594827624629</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5470226391558157</v>
+        <v>0.7594536335584273</v>
       </c>
       <c r="L23" t="n">
-        <v>2.553015319651484</v>
+        <v>1.098681761410849</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6214848548830983</v>
+        <v>0.5378081348469996</v>
       </c>
       <c r="N23" t="n">
-        <v>1.033810910187206</v>
+        <v>1.025319230169294</v>
       </c>
       <c r="O23" t="n">
-        <v>0.647942751806477</v>
+        <v>0.5607037405637519</v>
       </c>
       <c r="P23" t="n">
-        <v>131.9025749479191</v>
+        <v>132.4810136364208</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.1295035643522</v>
+        <v>211.7079422528539</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9424971556201885</v>
+        <v>0.956616687204242</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7799629752173136</v>
+        <v>0.7810922794272001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9987292623401818</v>
+        <v>0.8832396965919539</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.517312861686446</v>
+        <v>0.8947523276161178</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8309055524280622</v>
+        <v>0.8876294043733698</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3845217851440511</v>
+        <v>0.2901044124270211</v>
       </c>
       <c r="H24" t="n">
-        <v>1.471388597899161</v>
+        <v>1.463836935447683</v>
       </c>
       <c r="I24" t="n">
-        <v>0.005152958030653949</v>
+        <v>1.273853663813833</v>
       </c>
       <c r="J24" t="n">
-        <v>1.104265381208206</v>
+        <v>0.2561985724027512</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5547091054421937</v>
+        <v>0.765026118108292</v>
       </c>
       <c r="L24" t="n">
-        <v>2.566194299630508</v>
+        <v>1.097016854384235</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6200982060480833</v>
+        <v>0.5386134164937048</v>
       </c>
       <c r="N24" t="n">
-        <v>1.033660201588182</v>
+        <v>1.025395109929224</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6464970704597964</v>
+        <v>0.5615433047173202</v>
       </c>
       <c r="P24" t="n">
-        <v>131.9115096665388</v>
+        <v>132.4750287558994</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.1384382829719</v>
+        <v>211.7019573723324</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9427356868600134</v>
+        <v>0.9564798107235533</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7792771855487151</v>
+        <v>0.780925123731435</v>
       </c>
       <c r="D25" t="n">
-        <v>0.998779293217646</v>
+        <v>0.8823449989628013</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.567813529625148</v>
+        <v>0.8941054688504497</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8285199172014793</v>
+        <v>0.8867968764942736</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3829267256450072</v>
+        <v>0.291019706083645</v>
       </c>
       <c r="H25" t="n">
-        <v>1.47597447657085</v>
+        <v>1.464954706354945</v>
       </c>
       <c r="I25" t="n">
-        <v>0.004950078223151392</v>
+        <v>1.283614805397361</v>
       </c>
       <c r="J25" t="n">
-        <v>1.120120137815175</v>
+        <v>0.2577731848246382</v>
       </c>
       <c r="K25" t="n">
-        <v>0.562535108019163</v>
+        <v>0.7706940205342797</v>
       </c>
       <c r="L25" t="n">
-        <v>2.579445541474782</v>
+        <v>1.095403860016413</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6188107349141635</v>
+        <v>0.5394624232359887</v>
       </c>
       <c r="N25" t="n">
-        <v>1.033520573545358</v>
+        <v>1.025475232747188</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6451547890142731</v>
+        <v>0.5624284554343093</v>
       </c>
       <c r="P25" t="n">
-        <v>131.9198232499173</v>
+        <v>132.4687285912059</v>
       </c>
       <c r="Q25" t="n">
-        <v>211.1467518663504</v>
+        <v>211.6956572076389</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9429556075278468</v>
+        <v>0.9563357461021501</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7785689481566938</v>
+        <v>0.7807519896930872</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9987839765043143</v>
+        <v>0.8814361710718397</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.618601070586565</v>
+        <v>0.8934442306524726</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8260925631863109</v>
+        <v>0.8859504535526642</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3814561151265635</v>
+        <v>0.2919830668703242</v>
       </c>
       <c r="H26" t="n">
-        <v>1.480710463272431</v>
+        <v>1.466112454466586</v>
       </c>
       <c r="I26" t="n">
-        <v>0.004931087065173059</v>
+        <v>1.29353010798639</v>
       </c>
       <c r="J26" t="n">
-        <v>1.136064958616102</v>
+        <v>0.2593828003011878</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5704979677917925</v>
+        <v>0.7764565214241816</v>
       </c>
       <c r="L26" t="n">
-        <v>2.592623644105339</v>
+        <v>1.093840999622014</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6176213363595557</v>
+        <v>0.5403545751359233</v>
       </c>
       <c r="N26" t="n">
-        <v>1.033391839495895</v>
+        <v>1.025559563257278</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6439147553008012</v>
+        <v>0.5633585880876332</v>
       </c>
       <c r="P26" t="n">
-        <v>131.927518934616</v>
+        <v>132.462118937131</v>
       </c>
       <c r="Q26" t="n">
-        <v>211.1544475510491</v>
+        <v>211.689047553564</v>
       </c>
     </row>
   </sheetData>
